--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="5" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="verifiedUserAuth" sheetId="3" r:id="rId3"/>
     <sheet name="bindBankCard" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="266">
   <si>
     <t>CaseId</t>
   </si>
@@ -46,108 +46,27 @@
     <t>Result</t>
   </si>
   <si>
-    <t>手机号已注册</t>
-  </si>
-  <si>
-    <t>登录成功-手机号密码正确</t>
-  </si>
-  <si>
-    <t>/member/login</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${exist_phone}", "pwd": "123456"}</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"status": 1, "code": "10001", "data": null, "msg": "登录成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>登录失败-手机号缺失</t>
-  </si>
-  <si>
-    <t>{"pwd": "12345678"}</t>
-  </si>
-  <si>
     <t>{"status": 0, "code": "20103", "data": null, "msg": "手机号不能为空"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
   </si>
   <si>
-    <t>登录失败-密码缺失</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${exist_phone}"}</t>
-  </si>
-  <si>
     <t>{"status": 0, "code": "20103", "data": null, "msg": "密码不能为空"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
-    <t>登录失败-手机号类型非string</t>
-  </si>
-  <si>
-    <t>{"mobilephone": ${exist_phone}, "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20103", "data": null, "msg": "参数类型错误"}</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>登录失败-密码类型非string</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${exist_phone}", "pwd": 123456}</t>
-  </si>
-  <si>
-    <t>登录失败-手机号错误</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "1369157983", "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>{"status": 0, "code": "20111", "data": null, "msg": "用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>登录失败-密码错误</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${exist_phone}", "pwd": "12345"}</t>
-  </si>
-  <si>
-    <t>登录失败-手机号为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": null,  "pwd": "123456"}</t>
-  </si>
-  <si>
-    <t>登录失败-密码为空</t>
-  </si>
-  <si>
-    <t>{"mobilephone": "${exist_phone}", "pwd": null}</t>
-  </si>
-  <si>
-    <t>手机号未注册</t>
-  </si>
-  <si>
-    <t>登录失败-手机号未注册</t>
-  </si>
-  <si>
     <t>{"mobilephone": "${not_exist_phone}", "pwd": "123456"}</t>
   </si>
   <si>
@@ -782,19 +701,165 @@
   </si>
   <si>
     <t>SELECT Id FROM member ORDER BY Id LIMIT 1;</t>
+  </si>
+  <si>
+    <t>发送成功-所有参数正确</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-IP地址参数缺失</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-短信模板参数缺失</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-手机号码参数缺失</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-短信模板为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-手机号码为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-手机号码非11位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-短信模板不为1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败-手机号码非String类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tmpl_id": "1","mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1","mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": "1"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": "2","mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功-短信模板非String类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功-IP地址非String类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功-IP地址为空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": [19216811], "tmpl_id": "1","mobile":[${unregistered _phone}]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": "1","mobile":"1369157984"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": "1","mobile":[${unregistered _phone}]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": [1],"mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip":"192.168.1.1", "tmpl_id": "1","mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": null, "tmpl_id": "1","mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": "1","mobile":null}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "192.168.1.1", "tmpl_id": null,"mobile":"${unregistered _phone}"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"retCode": "0", "retInfo": "ok"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "用户IP不能为空"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "短信模板ID错误"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "短信模板配置错误"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "短信模板配置错误"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,345 +898,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1218,268 +959,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1496,8 +982,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,64 +991,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1855,23 +1297,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1886,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -1902,291 +1353,294 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
+      <c r="B2" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B2:B13"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2236,477 +1690,476 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>85</v>
+      <c r="B18" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B17"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2755,399 +2208,399 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
+      <c r="B2" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>28</v>
+        <v>69</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>28</v>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>16</v>
+        <v>106</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3155,49 +2608,48 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B14"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3243,36 +2695,36 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>143</v>
+      <c r="B2" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -3280,27 +2732,27 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -3308,27 +2760,27 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -3336,27 +2788,27 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -3364,27 +2816,27 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -3392,27 +2844,27 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -3420,27 +2872,27 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -3448,27 +2900,27 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -3476,27 +2928,27 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -3504,27 +2956,27 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3532,27 +2984,27 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -3560,27 +3012,27 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -3588,27 +3040,27 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -3616,27 +3068,27 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -3644,27 +3096,27 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -3672,27 +3124,27 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -3700,27 +3152,27 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -3728,27 +3180,27 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>16</v>
+        <v>157</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3756,27 +3208,27 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -3784,27 +3236,27 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -3812,27 +3264,27 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -3840,27 +3292,27 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -3868,27 +3320,27 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="3" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -3896,27 +3348,27 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -3924,27 +3376,27 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -3952,27 +3404,27 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -3980,27 +3432,27 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -4008,27 +3460,27 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -4036,27 +3488,27 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J30" s="3"/>
     </row>
@@ -4064,27 +3516,27 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J31" s="3"/>
     </row>
@@ -4092,27 +3544,27 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J32" s="3"/>
     </row>
@@ -4120,27 +3572,27 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J33" s="3"/>
     </row>
@@ -4148,27 +3600,27 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J34" s="3"/>
     </row>
@@ -4176,27 +3628,27 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -4204,27 +3656,27 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J36" s="3"/>
     </row>
@@ -4232,27 +3684,27 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>28</v>
+        <v>198</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J37" s="3"/>
     </row>
@@ -4260,27 +3712,27 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -4288,27 +3740,27 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J39" s="3"/>
     </row>
@@ -4316,27 +3768,27 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J40" s="3"/>
     </row>
@@ -4344,27 +3796,27 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J41" s="3"/>
     </row>
@@ -4372,27 +3824,27 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="3"/>
     </row>
@@ -4400,27 +3852,27 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J43" s="3"/>
     </row>
@@ -4428,27 +3880,27 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -4456,27 +3908,27 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J45" s="3"/>
     </row>
@@ -4484,27 +3936,27 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J46" s="3"/>
     </row>
@@ -4512,27 +3964,27 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J47" s="3"/>
     </row>
@@ -4540,27 +3992,27 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="J48" s="3"/>
     </row>
@@ -4568,27 +4020,27 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="3" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -4597,39 +4049,39 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>16</v>
+        <v>226</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B49"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7935" windowWidth="20400"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7935" windowWidth="20400" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bindBankCard" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="bindBankCard" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="29">
+  <numFmts count="0"/>
+  <fonts count="14">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -55,7 +50,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="10.5"/>
     </font>
@@ -77,146 +72,29 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF00FF00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,7 +110,7 @@
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -247,192 +125,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -528,104 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -635,156 +235,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="11" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="14" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="15" fillId="24" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,13 +288,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -847,70 +297,50 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1197,6 +627,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1209,73 +640,73 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="12.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="25.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="38.5"/>
-    <col customWidth="1" max="5" min="5" style="1" width="62.25"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="49"/>
-    <col customWidth="1" max="8" min="8" style="1" width="72"/>
-    <col customWidth="1" max="9" min="9" style="1" width="5.875"/>
+    <col customWidth="1" max="2" min="2" style="36" width="12.25"/>
+    <col customWidth="1" max="3" min="3" style="36" width="25.625"/>
+    <col customWidth="1" max="4" min="4" style="36" width="38.5"/>
+    <col customWidth="1" max="5" min="5" style="36" width="62.25"/>
+    <col customWidth="1" max="6" min="6" style="36" width="10.625"/>
+    <col customWidth="1" max="7" min="7" style="36" width="49"/>
+    <col customWidth="1" max="8" min="8" style="36" width="72"/>
+    <col customWidth="1" max="9" min="9" style="36" width="5.875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>ApiName</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -1305,22 +736,22 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="n"/>
+      <c r="B3" s="32" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
           <t>发送成功-IP地址非String类型</t>
@@ -1346,22 +777,22 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="n"/>
+      <c r="B4" s="32" t="n"/>
       <c r="C4" s="7" t="inlineStr">
         <is>
           <t>发送失败-IP地址为空</t>
@@ -1387,22 +818,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "用户IP不能为空"}</t>
         </is>
       </c>
-      <c r="H4" s="26" t="inlineStr">
+      <c r="H4" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 用户IP不能为空}</t>
         </is>
       </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="n"/>
+      <c r="B5" s="32" t="n"/>
       <c r="C5" s="7" t="inlineStr">
         <is>
           <t>发送失败-IP地址参数缺失</t>
@@ -1428,22 +859,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "用户IP不能为空"}</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 用户IP不能为空}</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="n"/>
+      <c r="B6" s="32" t="n"/>
       <c r="C6" s="7" t="inlineStr">
         <is>
           <t>发送失败-短信模板参数缺失</t>
@@ -1469,22 +900,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "短信模板ID错误"}</t>
         </is>
       </c>
-      <c r="H6" s="26" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 短信模板ID错误}</t>
         </is>
       </c>
-      <c r="I6" s="27" t="inlineStr">
+      <c r="I6" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="n"/>
+      <c r="B7" s="32" t="n"/>
       <c r="C7" s="7" t="inlineStr">
         <is>
           <t>发送失败-手机号码参数缺失</t>
@@ -1510,22 +941,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
         </is>
       </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="n"/>
+      <c r="B8" s="32" t="n"/>
       <c r="C8" s="7" t="inlineStr">
         <is>
           <t>发送失败-手机号码为空</t>
@@ -1551,22 +982,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
         </is>
       </c>
-      <c r="H8" s="26" t="inlineStr">
+      <c r="H8" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
         </is>
       </c>
-      <c r="I8" s="27" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="n"/>
+      <c r="B9" s="32" t="n"/>
       <c r="C9" s="7" t="inlineStr">
         <is>
           <t>发送失败-手机号码非11位</t>
@@ -1592,22 +1023,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
         </is>
       </c>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 手机号码错误}</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="n"/>
+      <c r="B10" s="32" t="n"/>
       <c r="C10" s="7" t="inlineStr">
         <is>
           <t>发送失败-短信模板为空</t>
@@ -1633,22 +1064,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "短信模板ID错误"}</t>
         </is>
       </c>
-      <c r="H10" s="26" t="inlineStr">
+      <c r="H10" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 短信模板ID错误}</t>
         </is>
       </c>
-      <c r="I10" s="27" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="n"/>
+      <c r="B11" s="32" t="n"/>
       <c r="C11" s="7" t="inlineStr">
         <is>
           <t>发送失败-短信模板不为1</t>
@@ -1674,22 +1105,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "短信模板配置错误"}</t>
         </is>
       </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>{'faultcode': soap:Server, 'faultstring': 短信模板配置错误}</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="n"/>
+      <c r="B12" s="32" t="n"/>
       <c r="C12" s="7" t="inlineStr">
         <is>
           <t>发送成功-短信模板非String类型</t>
@@ -1715,22 +1146,22 @@
           <t>{"faultcode": "soap:Server", "faultstring": "短信模板配置错误"}</t>
         </is>
       </c>
-      <c r="H12" s="26" t="inlineStr">
+      <c r="H12" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I12" s="28" t="inlineStr">
+      <c r="I12" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="n"/>
+      <c r="B13" s="33" t="n"/>
       <c r="C13" s="7" t="inlineStr">
         <is>
           <t>发送失败-手机号码非String类型</t>
@@ -1756,12 +1187,12 @@
           <t>{"faultcode": "soap:Server", "faultstring": "手机号码错误"}</t>
         </is>
       </c>
-      <c r="H13" s="26" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I13" s="28" t="inlineStr">
+      <c r="I13" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -1783,81 +1214,81 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.125"/>
-    <col customWidth="1" max="2" min="2" style="1" width="35.375"/>
-    <col customWidth="1" max="3" min="3" style="1" width="38.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="52.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="132"/>
-    <col customWidth="1" max="6" min="6" style="1" width="10.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="80.625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="81"/>
-    <col customWidth="1" max="9" min="9" style="1" width="5.875"/>
-    <col customWidth="1" max="10" min="10" style="1" width="90.75"/>
+    <col customWidth="1" max="1" min="1" style="36" width="9.125"/>
+    <col customWidth="1" max="2" min="2" style="36" width="35.375"/>
+    <col customWidth="1" max="3" min="3" style="36" width="38.75"/>
+    <col customWidth="1" max="4" min="4" style="36" width="52.625"/>
+    <col customWidth="1" max="5" min="5" style="36" width="132"/>
+    <col customWidth="1" max="6" min="6" style="36" width="10.75"/>
+    <col customWidth="1" max="7" min="7" style="36" width="80.625"/>
+    <col customWidth="1" max="8" min="8" style="36" width="81"/>
+    <col customWidth="1" max="9" min="9" style="36" width="5.875"/>
+    <col customWidth="1" max="10" min="10" style="36" width="90.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>ApiName</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="37" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="1">
-      <c r="A2" s="5" t="n">
+    <row customHeight="1" ht="27" r="2" s="36">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="inlineStr">
+      <c r="B2" s="23" t="inlineStr">
         <is>
           <t>注册的手机号与接收验证码的手机号相同且验证码有效</t>
         </is>
@@ -1887,12 +1318,12 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1904,7 +1335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="n"/>
@@ -1933,12 +1364,12 @@
           <t>{"retCode": "19001", "retInfo": "验证码错误"}</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 验证码错误}</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1946,7 +1377,7 @@
       <c r="J3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="n"/>
@@ -1975,12 +1406,12 @@
           <t>{"retCode": "19001", "retInfo": "用户名错误"}</t>
         </is>
       </c>
-      <c r="H4" s="26" t="inlineStr">
+      <c r="H4" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户名错误}</t>
         </is>
       </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1988,7 +1419,7 @@
       <c r="J4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="n"/>
@@ -2017,12 +1448,12 @@
           <t>{"retCode": "19001", "retInfo": "渠道信息错误"}</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 渠道信息错误}</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2030,7 +1461,7 @@
       <c r="J5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="n"/>
@@ -2059,12 +1490,12 @@
           <t>{"retCode": "19001", "retInfo": "用户UID错误"}</t>
         </is>
       </c>
-      <c r="H6" s="26" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户UID错误}</t>
         </is>
       </c>
-      <c r="I6" s="27" t="inlineStr">
+      <c r="I6" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2072,7 +1503,7 @@
       <c r="J6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="n"/>
@@ -2101,12 +1532,12 @@
           <t>{"retCode": "19001", "retInfo": "手机号错误"}</t>
         </is>
       </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2114,7 +1545,7 @@
       <c r="J7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="n"/>
@@ -2143,12 +1574,12 @@
           <t>{"retCode": "19001", "retInfo": "IP地址错误"}</t>
         </is>
       </c>
-      <c r="H8" s="26" t="inlineStr">
+      <c r="H8" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': IP地址错误}</t>
         </is>
       </c>
-      <c r="I8" s="27" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2156,7 +1587,7 @@
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="n"/>
@@ -2185,12 +1616,12 @@
           <t>{"retCode": "19001", "retInfo": "验证码错误"}</t>
         </is>
       </c>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 验证码错误}</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2198,7 +1629,7 @@
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="n"/>
@@ -2227,12 +1658,12 @@
           <t>{"retCode": "19001", "retInfo": "用户名错误"}</t>
         </is>
       </c>
-      <c r="H10" s="26" t="inlineStr">
+      <c r="H10" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户名错误}</t>
         </is>
       </c>
-      <c r="I10" s="27" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2240,7 +1671,7 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="n"/>
@@ -2269,12 +1700,12 @@
           <t>{"retCode": "19001", "retInfo": "渠道信息错误"}</t>
         </is>
       </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 渠道信息错误}</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2282,7 +1713,7 @@
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="31" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="n"/>
@@ -2311,12 +1742,12 @@
           <t>{"retCode": "19001", "retInfo": "用户UID错误"}</t>
         </is>
       </c>
-      <c r="H12" s="26" t="inlineStr">
+      <c r="H12" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户UID错误}</t>
         </is>
       </c>
-      <c r="I12" s="27" t="inlineStr">
+      <c r="I12" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2324,7 +1755,7 @@
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="31" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="n"/>
@@ -2353,12 +1784,12 @@
           <t>{"retCode": "19001", "retInfo": "手机号错误"}</t>
         </is>
       </c>
-      <c r="H13" s="26" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
         </is>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2366,7 +1797,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="31" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="n"/>
@@ -2395,12 +1826,12 @@
           <t>{"retCode": "30010008", "retInfo": "验证码错误"}</t>
         </is>
       </c>
-      <c r="H14" s="26" t="inlineStr">
+      <c r="H14" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 30010008, 'retInfo': 验证码错误}</t>
         </is>
       </c>
-      <c r="I14" s="27" t="inlineStr">
+      <c r="I14" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2408,7 +1839,7 @@
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="31" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="n"/>
@@ -2437,12 +1868,12 @@
           <t>{"retCode": "19001", "retInfo": "渠道信息错误"}</t>
         </is>
       </c>
-      <c r="H15" s="26" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 渠道信息错误}</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2450,7 +1881,7 @@
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="31" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="n"/>
@@ -2479,12 +1910,12 @@
           <t>{"retCode": "19001", "retInfo": "手机号错误"}</t>
         </is>
       </c>
-      <c r="H16" s="31" t="inlineStr">
+      <c r="H16" s="40" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 手机号错误}</t>
         </is>
       </c>
-      <c r="I16" s="32" t="inlineStr">
+      <c r="I16" s="41" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2492,7 +1923,7 @@
       <c r="J16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="31" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="n"/>
@@ -2521,12 +1952,12 @@
           <t>{"retCode": "0", "retInfo": "ok","is_exist_db":"yes"}</t>
         </is>
       </c>
-      <c r="H17" s="26" t="inlineStr">
+      <c r="H17" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok, 'is_exist_db': 'yes'}</t>
         </is>
       </c>
-      <c r="I17" s="27" t="inlineStr">
+      <c r="I17" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2538,7 +1969,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="31" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -2571,12 +2002,12 @@
           <t>{"retCode": "20042023", "retInfo": "该手机号已被注册"}</t>
         </is>
       </c>
-      <c r="H18" s="31" t="inlineStr">
+      <c r="H18" s="40" t="inlineStr">
         <is>
           <t>{'retCode': 20042023, 'retInfo': 该手机号已被注册}</t>
         </is>
       </c>
-      <c r="I18" s="32" t="inlineStr">
+      <c r="I18" s="41" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2597,81 +2028,81 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11"/>
-    <col customWidth="1" max="3" min="3" style="1" width="28.625"/>
-    <col customWidth="1" max="4" min="4" style="1" width="52.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="66.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="12.75"/>
-    <col customWidth="1" max="7" min="7" style="1" width="11.625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="6"/>
-    <col customWidth="1" max="9" min="9" style="1" width="5.875"/>
-    <col customWidth="1" max="10" min="10" style="1" width="90.75"/>
+    <col customWidth="1" max="1" min="1" style="36" width="6.375"/>
+    <col customWidth="1" max="2" min="2" style="36" width="11"/>
+    <col customWidth="1" max="3" min="3" style="36" width="28.625"/>
+    <col customWidth="1" max="4" min="4" style="36" width="52.625"/>
+    <col customWidth="1" max="5" min="5" style="36" width="66.625"/>
+    <col customWidth="1" max="6" min="6" style="36" width="12.75"/>
+    <col customWidth="1" max="7" min="7" style="36" width="11.625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="36" width="72.125"/>
+    <col customWidth="1" max="9" min="9" style="36" width="5.875"/>
+    <col customWidth="1" max="10" min="10" style="36" width="90.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>ApiName</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="37" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -2701,12 +2132,12 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2717,11 +2148,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="3" s="1">
-      <c r="A3" s="5" t="n">
+    <row customHeight="1" ht="40.5" r="3" s="36">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="n"/>
+      <c r="B3" s="33" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
           <t>帐号注册</t>
@@ -2732,7 +2163,7 @@
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="E3" s="25" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>{"verify_code": "${verify_code}", "user_id": "linux超${verify_unregistered_phone}", "channel_id": "1", "pwd": "123456", "mobile": "${verify_unregistered_phone}", "ip": "192.168.1.1"}</t>
         </is>
@@ -2747,12 +2178,12 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2764,10 +2195,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="31" t="inlineStr">
         <is>
           <t>用户已注册</t>
         </is>
@@ -2797,12 +2228,12 @@
           <t>{"retCode":"19001","retInfo":"用户ID错误"}</t>
         </is>
       </c>
-      <c r="H4" s="26" t="inlineStr">
+      <c r="H4" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户ID错误}</t>
         </is>
       </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2810,10 +2241,10 @@
       <c r="J4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="n"/>
+      <c r="B5" s="32" t="n"/>
       <c r="C5" s="7" t="inlineStr">
         <is>
           <t>认证失败-真实姓名缺失</t>
@@ -2839,12 +2270,12 @@
           <t>{"retCode":"19001","retInfo": "真实姓名错误"}</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2852,10 +2283,10 @@
       <c r="J5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="n"/>
+      <c r="B6" s="32" t="n"/>
       <c r="C6" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证号缺失</t>
@@ -2881,12 +2312,12 @@
           <t>{"retCode":"19001","retInfo": "身份证号错误"}</t>
         </is>
       </c>
-      <c r="H6" s="26" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 身份证号错误}</t>
         </is>
       </c>
-      <c r="I6" s="27" t="inlineStr">
+      <c r="I6" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2894,10 +2325,10 @@
       <c r="J6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="n"/>
+      <c r="B7" s="32" t="n"/>
       <c r="C7" s="7" t="inlineStr">
         <is>
           <t>认证失败-uid为空</t>
@@ -2923,12 +2354,12 @@
           <t>{"retCode":"19001","retInfo": "用户ID错误"}</t>
         </is>
       </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户ID错误}</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2936,10 +2367,10 @@
       <c r="J7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="n"/>
+      <c r="B8" s="32" t="n"/>
       <c r="C8" s="7" t="inlineStr">
         <is>
           <t>认证失败-真实姓名为空</t>
@@ -2965,12 +2396,12 @@
           <t>{"retCode":"19001","retInfo": "真实姓名错误"}</t>
         </is>
       </c>
-      <c r="H8" s="26" t="inlineStr">
+      <c r="H8" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 真实姓名错误}</t>
         </is>
       </c>
-      <c r="I8" s="27" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2978,10 +2409,10 @@
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="n"/>
+      <c r="B9" s="32" t="n"/>
       <c r="C9" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证号为空</t>
@@ -3007,12 +2438,12 @@
           <t>{"retCode":"19001","retInfo": "身份证号错误"}</t>
         </is>
       </c>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 身份证号错误}</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3020,10 +2451,10 @@
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="n"/>
+      <c r="B10" s="32" t="n"/>
       <c r="C10" s="7" t="inlineStr">
         <is>
           <t>认证失败-uid错误</t>
@@ -3049,12 +2480,12 @@
           <t>{"retCode":"20042002","retInfo": "用户不存在"}</t>
         </is>
       </c>
-      <c r="H10" s="26" t="inlineStr">
+      <c r="H10" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042002, 'retInfo': 用户不存在}</t>
         </is>
       </c>
-      <c r="I10" s="27" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3062,10 +2493,10 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="n"/>
+      <c r="B11" s="32" t="n"/>
       <c r="C11" s="7" t="inlineStr">
         <is>
           <t>认证失败-真实姓名为非中文</t>
@@ -3091,12 +2522,12 @@
           <t>{"retCode":"19001","retInfo": "真实姓名必须为中文"}</t>
         </is>
       </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 真实姓名必须为中文}</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3104,10 +2535,10 @@
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="n"/>
+      <c r="B12" s="32" t="n"/>
       <c r="C12" s="7" t="inlineStr">
         <is>
           <t>认证失败-真实姓名错误</t>
@@ -3133,12 +2564,12 @@
           <t>{"retCode":"0","retInfo": "ok","Flstate":"无效"}</t>
         </is>
       </c>
-      <c r="H12" s="26" t="inlineStr">
+      <c r="H12" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok, 'Flstate': '有效'}</t>
         </is>
       </c>
-      <c r="I12" s="28" t="inlineStr">
+      <c r="I12" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3150,10 +2581,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="n"/>
+      <c r="B13" s="32" t="n"/>
       <c r="C13" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证号错误</t>
@@ -3179,12 +2610,12 @@
           <t>{"retCode":"19001","retInfo": "身份证号检验错误"}</t>
         </is>
       </c>
-      <c r="H13" s="26" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 身份证号检验错误}</t>
         </is>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3192,10 +2623,10 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="n"/>
+      <c r="B14" s="32" t="n"/>
       <c r="C14" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证号小于18位</t>
@@ -3221,12 +2652,12 @@
           <t>{"retCode":"100010000","retInfo": "不是18位的身份证号码"}</t>
         </is>
       </c>
-      <c r="H14" s="26" t="inlineStr">
+      <c r="H14" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 100010000, 'retInfo': 不是18位的身份证号码}</t>
         </is>
       </c>
-      <c r="I14" s="27" t="inlineStr">
+      <c r="I14" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3234,10 +2665,10 @@
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="31" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="n"/>
+      <c r="B15" s="32" t="n"/>
       <c r="C15" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证号大于18位</t>
@@ -3263,12 +2694,12 @@
           <t>{"retCode":"19001","retInfo": "身份证号错误"}</t>
         </is>
       </c>
-      <c r="H15" s="26" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 身份证号错误}</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3276,10 +2707,10 @@
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="31" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="n"/>
+      <c r="B16" s="32" t="n"/>
       <c r="C16" s="7" t="inlineStr">
         <is>
           <t>认证成功-真实姓名正确</t>
@@ -3305,12 +2736,12 @@
           <t>{"retCode":"0","retInfo": "ok","Flstate":"有效"}</t>
         </is>
       </c>
-      <c r="H16" s="31" t="inlineStr">
+      <c r="H16" s="40" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok, 'Flstate': '有效'}</t>
         </is>
       </c>
-      <c r="I16" s="27" t="inlineStr">
+      <c r="I16" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3322,10 +2753,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="n"/>
+      <c r="B17" s="33" t="n"/>
       <c r="C17" s="7" t="inlineStr">
         <is>
           <t>认证失败-身份证已经被认证</t>
@@ -3351,12 +2782,12 @@
           <t>{"retCode":"20042033","retInfo": "该身份证已经进行过实名认证"}</t>
         </is>
       </c>
-      <c r="H17" s="31" t="inlineStr">
+      <c r="H17" s="40" t="inlineStr">
         <is>
           <t>{'retCode': 20042033, 'retInfo': 该身份证已经进行过实名认证}</t>
         </is>
       </c>
-      <c r="I17" s="27" t="inlineStr">
+      <c r="I17" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3364,10 +2795,10 @@
       <c r="J17" s="15" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="31" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="31" t="inlineStr">
         <is>
           <t>用户未注册</t>
         </is>
@@ -3397,12 +2828,12 @@
           <t>{"retCode":"20042002","retInfo": "用户不存在"}</t>
         </is>
       </c>
-      <c r="H18" s="26" t="inlineStr">
+      <c r="H18" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042002, 'retInfo': 用户不存在}</t>
         </is>
       </c>
-      <c r="I18" s="27" t="inlineStr">
+      <c r="I18" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3426,81 +2857,81 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="23.875"/>
+    <col customWidth="1" max="1" min="1" style="36" width="6.375"/>
+    <col customWidth="1" max="2" min="2" style="36" width="23.875"/>
     <col customWidth="1" max="3" min="3" style="20" width="43.875"/>
     <col customWidth="1" max="4" min="4" style="20" width="4.375"/>
     <col customWidth="1" max="5" min="5" style="20" width="167.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="12.375"/>
+    <col customWidth="1" max="6" min="6" style="36" width="12.375"/>
     <col customWidth="1" max="7" min="7" style="20" width="46.625"/>
-    <col customWidth="1" max="8" min="8" style="1" width="71.875"/>
-    <col customWidth="1" max="9" min="9" style="1" width="5.875"/>
-    <col customWidth="1" max="10" min="10" style="1" width="90.75"/>
+    <col customWidth="1" max="8" min="8" style="36" width="71.875"/>
+    <col customWidth="1" max="9" min="9" style="36" width="5.875"/>
+    <col customWidth="1" max="10" min="10" style="36" width="90.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="37" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="37" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="37" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="37" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="37" t="inlineStr">
         <is>
           <t>ApiName</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="37" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="37" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="37" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="37" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="34" t="inlineStr">
         <is>
           <t>无</t>
         </is>
@@ -3530,12 +2961,12 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="H2" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="I2" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3547,10 +2978,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="n"/>
+      <c r="B3" s="32" t="n"/>
       <c r="C3" s="7" t="inlineStr">
         <is>
           <t>帐号注册</t>
@@ -3576,12 +3007,12 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3593,10 +3024,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="n"/>
+      <c r="B4" s="32" t="n"/>
       <c r="C4" s="7" t="inlineStr">
         <is>
           <t>实名认证</t>
@@ -3622,28 +3053,28 @@
           <t>{"retCode":"0","retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H4" s="26" t="inlineStr">
+      <c r="H4" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 0, 'retInfo': ok}</t>
         </is>
       </c>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J4" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="5" s="1">
-      <c r="A5" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="5" s="36">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="inlineStr">
+      <c r="B5" s="35" t="inlineStr">
         <is>
           <t>账户已实名认证</t>
         </is>
       </c>
-      <c r="C5" s="24" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>绑定失败-uid缺失</t>
         </is>
@@ -3668,23 +3099,23 @@
           <t>{"retCode":"19001","retInfo":"用户UID错误"}</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户UID错误}</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J5" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" s="1">
-      <c r="A6" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="6" s="36">
+      <c r="A6" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="24" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>绑定失败-支付密码缺失</t>
         </is>
@@ -3709,23 +3140,23 @@
           <t>{"retCode":"19001","retInfo":"支付密码错误"}</t>
         </is>
       </c>
-      <c r="H6" s="26" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 支付密码错误}</t>
         </is>
       </c>
-      <c r="I6" s="27" t="inlineStr">
+      <c r="I6" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J6" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" s="1">
-      <c r="A7" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="7" s="36">
+      <c r="A7" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>绑定失败-绑定的银行卡手机号缺失</t>
         </is>
@@ -3750,23 +3181,23 @@
           <t>{"retCode":"19001","retInfo":"绑定的银行卡手机号错误"}</t>
         </is>
       </c>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 绑定的银行卡手机号错误}</t>
         </is>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J7" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="8" s="1">
-      <c r="A8" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="8" s="36">
+      <c r="A8" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>绑定失败-证件ID缺失</t>
         </is>
@@ -3791,23 +3222,23 @@
           <t>{"retCode":"19001","retInfo":"证件号错误"}</t>
         </is>
       </c>
-      <c r="H8" s="26" t="inlineStr">
+      <c r="H8" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 证件号错误}</t>
         </is>
       </c>
-      <c r="I8" s="27" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J8" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="9" s="1">
-      <c r="A9" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="9" s="36">
+      <c r="A9" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>绑定失败-持卡人姓名缺失</t>
         </is>
@@ -3832,23 +3263,23 @@
           <t>{"retCode":"19001","retInfo":"持卡人姓名错误"}</t>
         </is>
       </c>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 持卡人姓名错误}</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J9" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="10" s="1">
-      <c r="A10" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="10" s="36">
+      <c r="A10" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="inlineStr">
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>绑定失败-卡号缺失</t>
         </is>
@@ -3873,23 +3304,23 @@
           <t>{"retCode":"19001","retInfo":"卡号错误"}</t>
         </is>
       </c>
-      <c r="H10" s="26" t="inlineStr">
+      <c r="H10" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 卡号错误}</t>
         </is>
       </c>
-      <c r="I10" s="27" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J10" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="11" s="1">
-      <c r="A11" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="11" s="36">
+      <c r="A11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行卡类型缺失</t>
         </is>
@@ -3914,23 +3345,23 @@
           <t>{"retCode":"19001","retInfo":"银行类型错误"}</t>
         </is>
       </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 银行类型错误}</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="12" s="1">
-      <c r="A12" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="12" s="36">
+      <c r="A12" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="inlineStr">
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行名称缺失</t>
         </is>
@@ -3955,23 +3386,23 @@
           <t>{"retCode":"19001","retInfo":"银行卡号检验错误"}</t>
         </is>
       </c>
-      <c r="H12" s="26" t="inlineStr">
+      <c r="H12" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042018, 'retInfo': 用户交易密码不正确或未配置}</t>
         </is>
       </c>
-      <c r="I12" s="28" t="inlineStr">
+      <c r="I12" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="J12" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="13" s="1">
-      <c r="A13" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="13" s="36">
+      <c r="A13" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>绑定失败-uid为空</t>
         </is>
@@ -3996,23 +3427,23 @@
           <t>{"retCode":"19001","retInfo":"用户UID错误"}</t>
         </is>
       </c>
-      <c r="H13" s="26" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 用户UID错误}</t>
         </is>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J13" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="14" s="1">
-      <c r="A14" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="14" s="36">
+      <c r="A14" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="24" t="inlineStr">
+      <c r="C14" s="22" t="inlineStr">
         <is>
           <t>绑定失败-支付密码为空</t>
         </is>
@@ -4037,23 +3468,23 @@
           <t>{"retCode":"19001","retInfo":"支付密码错误"}</t>
         </is>
       </c>
-      <c r="H14" s="26" t="inlineStr">
+      <c r="H14" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 支付密码错误}</t>
         </is>
       </c>
-      <c r="I14" s="27" t="inlineStr">
+      <c r="I14" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="15" s="1">
-      <c r="A15" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="15" s="36">
+      <c r="A15" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="inlineStr">
+      <c r="C15" s="22" t="inlineStr">
         <is>
           <t>绑定失败-绑定的银行卡手机号为空</t>
         </is>
@@ -4078,23 +3509,23 @@
           <t>{"retCode":"19001","retInfo":"绑定的银行卡手机号错误"}</t>
         </is>
       </c>
-      <c r="H15" s="26" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 绑定的银行卡手机号错误}</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J15" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="16" s="1">
-      <c r="A16" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="16" s="36">
+      <c r="A16" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="24" t="inlineStr">
+      <c r="C16" s="22" t="inlineStr">
         <is>
           <t>绑定失败-证件ID为空</t>
         </is>
@@ -4119,23 +3550,23 @@
           <t>{"retCode":"19001","retInfo":"证件号错误"}</t>
         </is>
       </c>
-      <c r="H16" s="26" t="inlineStr">
+      <c r="H16" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 证件号错误}</t>
         </is>
       </c>
-      <c r="I16" s="27" t="inlineStr">
+      <c r="I16" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J16" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="17" s="1">
-      <c r="A17" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="17" s="36">
+      <c r="A17" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="24" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>绑定失败-持卡人姓名为空</t>
         </is>
@@ -4160,23 +3591,23 @@
           <t>{"retCode":"19001","retInfo":"持卡人姓名错误"}</t>
         </is>
       </c>
-      <c r="H17" s="26" t="inlineStr">
+      <c r="H17" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 持卡人姓名错误}</t>
         </is>
       </c>
-      <c r="I17" s="27" t="inlineStr">
+      <c r="I17" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J17" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="18" s="1">
-      <c r="A18" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="18" s="36">
+      <c r="A18" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="24" t="inlineStr">
+      <c r="C18" s="22" t="inlineStr">
         <is>
           <t>绑定失败-卡号为空</t>
         </is>
@@ -4201,23 +3632,23 @@
           <t>{"retCode":"19001","retInfo":"卡号错误"}</t>
         </is>
       </c>
-      <c r="H18" s="26" t="inlineStr">
+      <c r="H18" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 卡号错误}</t>
         </is>
       </c>
-      <c r="I18" s="27" t="inlineStr">
+      <c r="I18" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J18" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="19" s="1">
-      <c r="A19" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="19" s="36">
+      <c r="A19" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="C19" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行卡类型为空</t>
         </is>
@@ -4242,23 +3673,23 @@
           <t>{"retCode":"19001","retInfo":"银行类型错误"}</t>
         </is>
       </c>
-      <c r="H19" s="26" t="inlineStr">
+      <c r="H19" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 银行类型错误}</t>
         </is>
       </c>
-      <c r="I19" s="27" t="inlineStr">
+      <c r="I19" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J19" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="20" s="1">
-      <c r="A20" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="20" s="36">
+      <c r="A20" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="24" t="inlineStr">
+      <c r="C20" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行名称为空</t>
         </is>
@@ -4283,23 +3714,23 @@
           <t>{"retCode":"19001","retInfo":"银行卡号检验错误"}</t>
         </is>
       </c>
-      <c r="H20" s="26" t="inlineStr">
+      <c r="H20" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042018, 'retInfo': 用户交易密码不正确或未配置}</t>
         </is>
       </c>
-      <c r="I20" s="28" t="inlineStr">
+      <c r="I20" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="J20" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="21" s="1">
-      <c r="A21" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="21" s="36">
+      <c r="A21" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="24" t="inlineStr">
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行卡号18位错误</t>
         </is>
@@ -4324,23 +3755,23 @@
           <t>{"retCode":"19001","retInfo":"银行卡号检验错误"}</t>
         </is>
       </c>
-      <c r="H21" s="26" t="inlineStr">
+      <c r="H21" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 银行卡号检验错误}</t>
         </is>
       </c>
-      <c r="I21" s="27" t="inlineStr">
+      <c r="I21" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J21" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="22" s="1">
-      <c r="A22" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="22" s="36">
+      <c r="A22" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行名称错误</t>
         </is>
@@ -4365,23 +3796,23 @@
           <t>{"retCode":"20042006","retInfo":"用户实名信息比对错误"}</t>
         </is>
       </c>
-      <c r="H22" s="26" t="inlineStr">
+      <c r="H22" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042018, 'retInfo': 用户交易密码不正确或未配置}</t>
         </is>
       </c>
-      <c r="I22" s="28" t="inlineStr">
+      <c r="I22" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="J22" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="23" s="1">
-      <c r="A23" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="23" s="36">
+      <c r="A23" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>绑定失败-证件ID与实名时身份证号不一致</t>
         </is>
@@ -4406,23 +3837,23 @@
           <t>{"retCode":"20042006","retInfo":"用户实名信息比对错误"}</t>
         </is>
       </c>
-      <c r="H23" s="26" t="inlineStr">
+      <c r="H23" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042006, 'retInfo': 用户实名信息比对错误}</t>
         </is>
       </c>
-      <c r="I23" s="27" t="inlineStr">
+      <c r="I23" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J23" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="24" s="1">
-      <c r="A24" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="24" s="36">
+      <c r="A24" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="24" t="inlineStr">
+      <c r="C24" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行卡手机号非11位</t>
         </is>
@@ -4447,23 +3878,23 @@
           <t>{"retCode":"19001","retInfo":"绑定的银行卡手机号错误"}</t>
         </is>
       </c>
-      <c r="H24" s="26" t="inlineStr">
+      <c r="H24" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 绑定的银行卡手机号错误}</t>
         </is>
       </c>
-      <c r="I24" s="27" t="inlineStr">
+      <c r="I24" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J24" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="25" s="1">
-      <c r="A25" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="25" s="36">
+      <c r="A25" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="22" t="inlineStr">
         <is>
           <t>绑定失败-持卡人姓名错误</t>
         </is>
@@ -4488,23 +3919,23 @@
           <t>{"retCode":"20042006","retInfo":"用户实名信息比对错误"}</t>
         </is>
       </c>
-      <c r="H25" s="26" t="inlineStr">
+      <c r="H25" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042006, 'retInfo': 用户实名信息比对错误}</t>
         </is>
       </c>
-      <c r="I25" s="27" t="inlineStr">
+      <c r="I25" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J25" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="26" s="1">
-      <c r="A26" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="26" s="36">
+      <c r="A26" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="inlineStr">
+      <c r="C26" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行卡号格式错误(大于18位)</t>
         </is>
@@ -4529,23 +3960,23 @@
           <t>{"retCode":"19001","retInfo":"卡号错误"}</t>
         </is>
       </c>
-      <c r="H26" s="26" t="inlineStr">
+      <c r="H26" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 19001, 'retInfo': 卡号错误}</t>
         </is>
       </c>
-      <c r="I26" s="27" t="inlineStr">
+      <c r="I26" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
       <c r="J26" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="27" s="1">
-      <c r="A27" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="27" s="36">
+      <c r="A27" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="24" t="inlineStr">
+      <c r="C27" s="22" t="inlineStr">
         <is>
           <t>绑定失败-银行类型错误</t>
         </is>
@@ -4570,23 +4001,23 @@
           <t>{"retCode":"20042006","retInfo":"用户实名信息比对错误"}</t>
         </is>
       </c>
-      <c r="H27" s="26" t="inlineStr">
+      <c r="H27" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042018, 'retInfo': 用户交易密码不正确或未配置}</t>
         </is>
       </c>
-      <c r="I27" s="28" t="inlineStr">
+      <c r="I27" s="42" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
       <c r="J27" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="14.25" r="28" s="1">
-      <c r="A28" s="22" t="n">
+    <row customHeight="1" ht="14.25" r="28" s="36">
+      <c r="A28" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="inlineStr">
+      <c r="C28" s="22" t="inlineStr">
         <is>
           <t>绑定成功-所有参数正确</t>
         </is>
@@ -4611,22 +4042,22 @@
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="H28" s="29" t="inlineStr">
+      <c r="H28" s="43" t="inlineStr">
         <is>
           <t>{'retCode': 20042018, 'retInfo': 用户交易密码不正确或未配置}</t>
         </is>
       </c>
-      <c r="I28" s="30" t="inlineStr">
+      <c r="I28" s="44" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="29" s="1">
-      <c r="A29" s="5" t="n">
+    <row customHeight="1" ht="14.25" r="29" s="36">
+      <c r="A29" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="B29" s="31" t="inlineStr">
         <is>
           <t>账户未实名认证</t>
         </is>
@@ -4656,12 +4087,12 @@
           <t>{"retCode":"20042004","retInfo":"用户实名认证信息不存在"}</t>
         </is>
       </c>
-      <c r="H29" s="26" t="inlineStr">
+      <c r="H29" s="38" t="inlineStr">
         <is>
           <t>{'retCode': 20042004, 'retInfo': 用户实名认证信息不存在}</t>
         </is>
       </c>
-      <c r="I29" s="27" t="inlineStr">
+      <c r="I29" s="39" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -4687,12 +4118,12 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="1" width="24.875"/>
+    <col customWidth="1" max="3" min="3" style="36" width="24.875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4733,7 +4164,7 @@
       <c r="I1" s="15" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="31" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="n"/>
@@ -4775,7 +4206,7 @@
       <c r="J2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="31" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="n"/>
@@ -4817,7 +4248,7 @@
       <c r="J3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="31" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="n"/>
@@ -4859,7 +4290,7 @@
       <c r="J4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="31" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="n"/>
@@ -4901,7 +4332,7 @@
       <c r="J5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="31" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="n"/>
@@ -4943,7 +4374,7 @@
       <c r="J6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="31" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="n"/>
@@ -4985,7 +4416,7 @@
       <c r="J7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="31" t="n">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="n"/>
@@ -5027,7 +4458,7 @@
       <c r="J8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="31" t="n">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="n"/>
@@ -5069,7 +4500,7 @@
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="31" t="n">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="n"/>
@@ -5111,7 +4542,7 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="31" t="n">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="n"/>
@@ -5153,7 +4584,7 @@
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="31" t="n">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="n"/>
@@ -5195,7 +4626,7 @@
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="31" t="n">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="n"/>
@@ -5237,7 +4668,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="31" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="n"/>
@@ -5279,7 +4710,7 @@
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="31" t="n">
         <v>15</v>
       </c>
       <c r="B15" s="6" t="n"/>
@@ -5321,7 +4752,7 @@
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="31" t="n">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="n"/>
@@ -5363,7 +4794,7 @@
       <c r="J16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="31" t="n">
         <v>17</v>
       </c>
       <c r="B17" s="6" t="n"/>
@@ -5405,7 +4836,7 @@
       <c r="J17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="31" t="n">
         <v>18</v>
       </c>
       <c r="B18" s="6" t="n"/>
@@ -5447,7 +4878,7 @@
       <c r="J18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="31" t="n">
         <v>19</v>
       </c>
       <c r="B19" s="6" t="n"/>
@@ -5489,7 +4920,7 @@
       <c r="J19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="31" t="n">
         <v>20</v>
       </c>
       <c r="B20" s="6" t="n"/>
@@ -5531,7 +4962,7 @@
       <c r="J20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="31" t="n">
         <v>21</v>
       </c>
       <c r="B21" s="10" t="n"/>
@@ -5573,7 +5004,7 @@
       <c r="J21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="31" t="n">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="inlineStr">
@@ -5619,7 +5050,7 @@
       <c r="J22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n"/>
+      <c r="A23" s="31" t="n"/>
       <c r="B23" s="10" t="n"/>
       <c r="C23" s="7" t="n"/>
       <c r="D23" s="7" t="n"/>
@@ -5631,7 +5062,7 @@
       <c r="J23" s="15" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n"/>
+      <c r="A24" s="31" t="n"/>
       <c r="B24" s="7" t="n"/>
       <c r="C24" s="7" t="n"/>
       <c r="D24" s="7" t="n"/>
@@ -5643,10 +5074,10 @@
       <c r="J24" s="15" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="11" t="n"/>
+      <c r="B25" s="32" t="n"/>
       <c r="C25" s="7" t="inlineStr">
         <is>
           <t>发送成功-短信模板非String类型</t>
@@ -5684,10 +5115,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="33" t="n"/>
       <c r="C26" s="7" t="inlineStr">
         <is>
           <t>发送失败-手机号码非String类型</t>
@@ -5724,11 +5155,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="28" s="1">
-      <c r="A28" s="5" t="n">
+    <row customHeight="1" ht="14.25" r="28" s="36">
+      <c r="A28" s="31" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="B28" s="31" t="inlineStr">
         <is>
           <t>账户未实名认证</t>
         </is>

--- a/data/testcases.xlsx
+++ b/data/testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7935" windowWidth="20400" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="bindBankCard" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="userRegister" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="verifyUserAuth" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bindBankCard" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
